--- a/src/chart.xlsx
+++ b/src/chart.xlsx
@@ -45,10 +45,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,7 +478,9 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>First name</t>
+          <t>Line 1
+Line 2
+Line 3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -495,9 +500,11 @@
           <t>Username</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>First name</t>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Line 1
+Line 2
+Line 3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">

--- a/src/chart.xlsx
+++ b/src/chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="940" windowWidth="25040" windowHeight="14060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -430,10 +430,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:G5"/>
+  <dimension ref="A3:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -476,7 +476,7 @@
           <t>Username</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Line 1
 Line 2
@@ -517,6 +517,72 @@
           <t>Email address</t>
         </is>
       </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="C7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="C8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="C10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="C11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="C15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="C17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="C23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
